--- a/backups/mastered.xlsx
+++ b/backups/mastered.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8904" uniqueCount="8895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8906" uniqueCount="8897">
   <si>
     <t>electronic</t>
   </si>
@@ -26710,6 +26710,14 @@
   </si>
   <si>
     <t>above</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -26759,11 +26767,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27065,10 +27074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4452"/>
+  <dimension ref="A1:D5242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4429" workbookViewId="0">
+      <selection activeCell="F4480" sqref="F4480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -47072,8 +47081,8 @@
       </c>
     </row>
     <row r="1429" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1429" t="b">
-        <v>0</v>
+      <c r="A1429" s="2" t="s">
+        <v>8895</v>
       </c>
       <c r="B1429">
         <v>0</v>
@@ -84368,8 +84377,8 @@
       </c>
     </row>
     <row r="4093" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4093" t="b">
-        <v>1</v>
+      <c r="A4093" s="2" t="s">
+        <v>8896</v>
       </c>
       <c r="B4093">
         <v>0</v>
@@ -89406,6 +89415,2376 @@
       <c r="D4452" t="s">
         <v>1857</v>
       </c>
+    </row>
+    <row r="4453" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4453"/>
+    </row>
+    <row r="4454" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4454"/>
+    </row>
+    <row r="4455" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4455"/>
+    </row>
+    <row r="4456" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4456"/>
+    </row>
+    <row r="4457" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4457"/>
+    </row>
+    <row r="4458" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4458"/>
+    </row>
+    <row r="4459" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4459"/>
+    </row>
+    <row r="4460" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4460"/>
+    </row>
+    <row r="4461" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4461"/>
+    </row>
+    <row r="4462" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4462"/>
+    </row>
+    <row r="4463" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4463"/>
+    </row>
+    <row r="4464" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4464"/>
+    </row>
+    <row r="4465" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4465"/>
+    </row>
+    <row r="4466" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4466"/>
+    </row>
+    <row r="4467" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4467"/>
+    </row>
+    <row r="4468" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4468"/>
+    </row>
+    <row r="4469" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4469"/>
+    </row>
+    <row r="4470" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4470"/>
+    </row>
+    <row r="4471" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4471"/>
+    </row>
+    <row r="4472" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4472"/>
+    </row>
+    <row r="4473" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4473"/>
+    </row>
+    <row r="4474" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4474"/>
+    </row>
+    <row r="4475" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4475"/>
+    </row>
+    <row r="4476" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4476"/>
+    </row>
+    <row r="4477" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4477"/>
+    </row>
+    <row r="4478" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4478"/>
+    </row>
+    <row r="4479" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4479"/>
+    </row>
+    <row r="4480" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4480"/>
+    </row>
+    <row r="4481" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4481"/>
+    </row>
+    <row r="4482" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4482"/>
+    </row>
+    <row r="4483" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4483"/>
+    </row>
+    <row r="4484" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4484"/>
+    </row>
+    <row r="4485" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4485"/>
+    </row>
+    <row r="4486" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4486"/>
+    </row>
+    <row r="4487" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4487"/>
+    </row>
+    <row r="4488" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4488"/>
+    </row>
+    <row r="4489" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4489"/>
+    </row>
+    <row r="4490" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4490"/>
+    </row>
+    <row r="4491" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4491"/>
+    </row>
+    <row r="4492" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4492"/>
+    </row>
+    <row r="4493" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4493"/>
+    </row>
+    <row r="4494" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4494"/>
+    </row>
+    <row r="4495" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4495"/>
+    </row>
+    <row r="4496" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4496"/>
+    </row>
+    <row r="4497" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4497"/>
+    </row>
+    <row r="4498" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4498"/>
+    </row>
+    <row r="4499" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4499"/>
+    </row>
+    <row r="4500" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4500"/>
+    </row>
+    <row r="4501" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4501"/>
+    </row>
+    <row r="4502" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4502"/>
+    </row>
+    <row r="4503" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4503"/>
+    </row>
+    <row r="4504" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4504"/>
+    </row>
+    <row r="4505" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4505"/>
+    </row>
+    <row r="4506" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4506"/>
+    </row>
+    <row r="4507" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4507"/>
+    </row>
+    <row r="4508" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4508"/>
+    </row>
+    <row r="4509" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4509"/>
+    </row>
+    <row r="4510" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4510"/>
+    </row>
+    <row r="4511" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4511"/>
+    </row>
+    <row r="4512" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4512"/>
+    </row>
+    <row r="4513" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4513"/>
+    </row>
+    <row r="4514" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4514"/>
+    </row>
+    <row r="4515" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4515"/>
+    </row>
+    <row r="4516" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4516"/>
+    </row>
+    <row r="4517" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4517"/>
+    </row>
+    <row r="4518" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4518"/>
+    </row>
+    <row r="4519" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4519"/>
+    </row>
+    <row r="4520" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4520"/>
+    </row>
+    <row r="4521" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4521"/>
+    </row>
+    <row r="4522" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4522"/>
+    </row>
+    <row r="4523" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4523"/>
+    </row>
+    <row r="4524" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4524"/>
+    </row>
+    <row r="4525" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4525"/>
+    </row>
+    <row r="4526" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4526"/>
+    </row>
+    <row r="4527" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4527"/>
+    </row>
+    <row r="4528" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4528"/>
+    </row>
+    <row r="4529" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4529"/>
+    </row>
+    <row r="4530" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4530"/>
+    </row>
+    <row r="4531" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4531"/>
+    </row>
+    <row r="4532" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4532"/>
+    </row>
+    <row r="4533" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4533"/>
+    </row>
+    <row r="4534" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4534"/>
+    </row>
+    <row r="4535" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4535"/>
+    </row>
+    <row r="4536" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4536"/>
+    </row>
+    <row r="4537" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4537"/>
+    </row>
+    <row r="4538" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4538"/>
+    </row>
+    <row r="4539" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4539"/>
+    </row>
+    <row r="4540" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4540"/>
+    </row>
+    <row r="4541" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4541"/>
+    </row>
+    <row r="4542" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4542"/>
+    </row>
+    <row r="4543" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4543"/>
+    </row>
+    <row r="4544" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4544"/>
+    </row>
+    <row r="4545" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4545"/>
+    </row>
+    <row r="4546" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4546"/>
+    </row>
+    <row r="4547" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4547"/>
+    </row>
+    <row r="4548" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4548"/>
+    </row>
+    <row r="4549" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4549"/>
+    </row>
+    <row r="4550" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4550"/>
+    </row>
+    <row r="4551" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4551"/>
+    </row>
+    <row r="4552" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4552"/>
+    </row>
+    <row r="4553" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4553"/>
+    </row>
+    <row r="4554" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4554"/>
+    </row>
+    <row r="4555" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4555"/>
+    </row>
+    <row r="4556" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4556"/>
+    </row>
+    <row r="4557" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4557"/>
+    </row>
+    <row r="4558" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4558"/>
+    </row>
+    <row r="4559" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4559"/>
+    </row>
+    <row r="4560" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4560"/>
+    </row>
+    <row r="4561" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4561"/>
+    </row>
+    <row r="4562" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4562"/>
+    </row>
+    <row r="4563" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4563"/>
+    </row>
+    <row r="4564" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4564"/>
+    </row>
+    <row r="4565" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4565"/>
+    </row>
+    <row r="4566" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4566"/>
+    </row>
+    <row r="4567" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4567"/>
+    </row>
+    <row r="4568" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4568"/>
+    </row>
+    <row r="4569" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4569"/>
+    </row>
+    <row r="4570" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4570"/>
+    </row>
+    <row r="4571" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4571"/>
+    </row>
+    <row r="4572" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4572"/>
+    </row>
+    <row r="4573" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4573"/>
+    </row>
+    <row r="4574" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4574"/>
+    </row>
+    <row r="4575" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4575"/>
+    </row>
+    <row r="4576" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4576"/>
+    </row>
+    <row r="4577" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4577"/>
+    </row>
+    <row r="4578" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4578"/>
+    </row>
+    <row r="4579" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4579"/>
+    </row>
+    <row r="4580" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4580"/>
+    </row>
+    <row r="4581" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4581"/>
+    </row>
+    <row r="4582" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4582"/>
+    </row>
+    <row r="4583" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4583"/>
+    </row>
+    <row r="4584" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4584"/>
+    </row>
+    <row r="4585" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4585"/>
+    </row>
+    <row r="4586" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4586"/>
+    </row>
+    <row r="4587" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4587"/>
+    </row>
+    <row r="4588" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4588"/>
+    </row>
+    <row r="4589" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4589"/>
+    </row>
+    <row r="4590" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4590"/>
+    </row>
+    <row r="4591" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4591"/>
+    </row>
+    <row r="4592" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4592"/>
+    </row>
+    <row r="4593" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4593"/>
+    </row>
+    <row r="4594" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4594"/>
+    </row>
+    <row r="4595" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4595"/>
+    </row>
+    <row r="4596" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4596"/>
+    </row>
+    <row r="4597" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4597"/>
+    </row>
+    <row r="4598" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4598"/>
+    </row>
+    <row r="4599" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4599"/>
+    </row>
+    <row r="4600" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4600"/>
+    </row>
+    <row r="4601" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4601"/>
+    </row>
+    <row r="4602" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4602"/>
+    </row>
+    <row r="4603" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4603"/>
+    </row>
+    <row r="4604" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4604"/>
+    </row>
+    <row r="4605" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4605"/>
+    </row>
+    <row r="4606" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4606"/>
+    </row>
+    <row r="4607" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4607"/>
+    </row>
+    <row r="4608" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4608"/>
+    </row>
+    <row r="4609" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4609"/>
+    </row>
+    <row r="4610" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4610"/>
+    </row>
+    <row r="4611" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4611"/>
+    </row>
+    <row r="4612" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4612"/>
+    </row>
+    <row r="4613" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4613"/>
+    </row>
+    <row r="4614" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4614"/>
+    </row>
+    <row r="4615" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4615"/>
+    </row>
+    <row r="4616" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4616"/>
+    </row>
+    <row r="4617" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4617"/>
+    </row>
+    <row r="4618" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4618"/>
+    </row>
+    <row r="4619" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4619"/>
+    </row>
+    <row r="4620" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4620"/>
+    </row>
+    <row r="4621" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4621"/>
+    </row>
+    <row r="4622" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4622"/>
+    </row>
+    <row r="4623" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4623"/>
+    </row>
+    <row r="4624" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4624"/>
+    </row>
+    <row r="4625" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4625"/>
+    </row>
+    <row r="4626" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4626"/>
+    </row>
+    <row r="4627" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4627"/>
+    </row>
+    <row r="4628" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4628"/>
+    </row>
+    <row r="4629" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4629"/>
+    </row>
+    <row r="4630" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4630"/>
+    </row>
+    <row r="4631" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4631"/>
+    </row>
+    <row r="4632" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4632"/>
+    </row>
+    <row r="4633" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4633"/>
+    </row>
+    <row r="4634" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4634"/>
+    </row>
+    <row r="4635" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4635"/>
+    </row>
+    <row r="4636" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4636"/>
+    </row>
+    <row r="4637" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4637"/>
+    </row>
+    <row r="4638" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4638"/>
+    </row>
+    <row r="4639" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4639"/>
+    </row>
+    <row r="4640" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4640"/>
+    </row>
+    <row r="4641" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4641"/>
+    </row>
+    <row r="4642" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4642"/>
+    </row>
+    <row r="4643" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4643"/>
+    </row>
+    <row r="4644" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4644"/>
+    </row>
+    <row r="4645" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4645"/>
+    </row>
+    <row r="4646" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4646"/>
+    </row>
+    <row r="4647" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4647"/>
+    </row>
+    <row r="4648" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4648"/>
+    </row>
+    <row r="4649" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4649"/>
+    </row>
+    <row r="4650" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4650"/>
+    </row>
+    <row r="4651" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4651"/>
+    </row>
+    <row r="4652" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4652"/>
+    </row>
+    <row r="4653" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4653"/>
+    </row>
+    <row r="4654" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4654"/>
+    </row>
+    <row r="4655" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4655"/>
+    </row>
+    <row r="4656" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4656"/>
+    </row>
+    <row r="4657" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4657"/>
+    </row>
+    <row r="4658" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4658"/>
+    </row>
+    <row r="4659" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4659"/>
+    </row>
+    <row r="4660" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4660"/>
+    </row>
+    <row r="4661" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4661"/>
+    </row>
+    <row r="4662" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4662"/>
+    </row>
+    <row r="4663" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4663"/>
+    </row>
+    <row r="4664" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4664"/>
+    </row>
+    <row r="4665" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4665"/>
+    </row>
+    <row r="4666" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4666"/>
+    </row>
+    <row r="4667" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4667"/>
+    </row>
+    <row r="4668" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4668"/>
+    </row>
+    <row r="4669" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4669"/>
+    </row>
+    <row r="4670" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4670"/>
+    </row>
+    <row r="4671" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4671"/>
+    </row>
+    <row r="4672" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4672"/>
+    </row>
+    <row r="4673" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4673"/>
+    </row>
+    <row r="4674" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4674"/>
+    </row>
+    <row r="4675" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4675"/>
+    </row>
+    <row r="4676" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4676"/>
+    </row>
+    <row r="4677" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4677"/>
+    </row>
+    <row r="4678" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4678"/>
+    </row>
+    <row r="4679" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4679"/>
+    </row>
+    <row r="4680" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4680"/>
+    </row>
+    <row r="4681" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4681"/>
+    </row>
+    <row r="4682" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4682"/>
+    </row>
+    <row r="4683" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4683"/>
+    </row>
+    <row r="4684" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4684"/>
+    </row>
+    <row r="4685" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4685"/>
+    </row>
+    <row r="4686" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4686"/>
+    </row>
+    <row r="4687" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4687"/>
+    </row>
+    <row r="4688" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4688"/>
+    </row>
+    <row r="4689" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4689"/>
+    </row>
+    <row r="4690" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4690"/>
+    </row>
+    <row r="4691" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4691"/>
+    </row>
+    <row r="4692" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4692"/>
+    </row>
+    <row r="4693" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4693"/>
+    </row>
+    <row r="4694" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4694"/>
+    </row>
+    <row r="4695" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4695"/>
+    </row>
+    <row r="4696" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4696"/>
+    </row>
+    <row r="4697" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4697"/>
+    </row>
+    <row r="4698" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4698"/>
+    </row>
+    <row r="4699" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4699"/>
+    </row>
+    <row r="4700" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4700"/>
+    </row>
+    <row r="4701" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4701"/>
+    </row>
+    <row r="4702" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4702"/>
+    </row>
+    <row r="4703" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4703"/>
+    </row>
+    <row r="4704" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4704"/>
+    </row>
+    <row r="4705" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4705"/>
+    </row>
+    <row r="4706" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4706"/>
+    </row>
+    <row r="4707" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4707"/>
+    </row>
+    <row r="4708" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4708"/>
+    </row>
+    <row r="4709" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4709"/>
+    </row>
+    <row r="4710" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4710"/>
+    </row>
+    <row r="4711" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4711"/>
+    </row>
+    <row r="4712" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4712"/>
+    </row>
+    <row r="4713" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4713"/>
+    </row>
+    <row r="4714" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4714"/>
+    </row>
+    <row r="4715" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4715"/>
+    </row>
+    <row r="4716" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4716"/>
+    </row>
+    <row r="4717" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4717"/>
+    </row>
+    <row r="4718" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4718"/>
+    </row>
+    <row r="4719" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4719"/>
+    </row>
+    <row r="4720" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4720"/>
+    </row>
+    <row r="4721" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4721"/>
+    </row>
+    <row r="4722" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4722"/>
+    </row>
+    <row r="4723" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4723"/>
+    </row>
+    <row r="4724" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4724"/>
+    </row>
+    <row r="4725" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4725"/>
+    </row>
+    <row r="4726" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4726"/>
+    </row>
+    <row r="4727" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4727"/>
+    </row>
+    <row r="4728" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4728"/>
+    </row>
+    <row r="4729" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4729"/>
+    </row>
+    <row r="4730" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4730"/>
+    </row>
+    <row r="4731" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4731"/>
+    </row>
+    <row r="4732" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4732"/>
+    </row>
+    <row r="4733" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4733"/>
+    </row>
+    <row r="4734" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4734"/>
+    </row>
+    <row r="4735" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4735"/>
+    </row>
+    <row r="4736" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4736"/>
+    </row>
+    <row r="4737" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4737"/>
+    </row>
+    <row r="4738" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4738"/>
+    </row>
+    <row r="4739" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4739"/>
+    </row>
+    <row r="4740" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4740"/>
+    </row>
+    <row r="4741" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4741"/>
+    </row>
+    <row r="4742" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4742"/>
+    </row>
+    <row r="4743" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4743"/>
+    </row>
+    <row r="4744" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4744"/>
+    </row>
+    <row r="4745" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4745"/>
+    </row>
+    <row r="4746" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4746"/>
+    </row>
+    <row r="4747" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4747"/>
+    </row>
+    <row r="4748" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4748"/>
+    </row>
+    <row r="4749" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4749"/>
+    </row>
+    <row r="4750" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4750"/>
+    </row>
+    <row r="4751" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4751"/>
+    </row>
+    <row r="4752" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4752"/>
+    </row>
+    <row r="4753" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4753"/>
+    </row>
+    <row r="4754" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4754"/>
+    </row>
+    <row r="4755" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4755"/>
+    </row>
+    <row r="4756" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4756"/>
+    </row>
+    <row r="4757" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4757"/>
+    </row>
+    <row r="4758" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4758"/>
+    </row>
+    <row r="4759" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4759"/>
+    </row>
+    <row r="4760" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4760"/>
+    </row>
+    <row r="4761" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4761"/>
+    </row>
+    <row r="4762" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4762"/>
+    </row>
+    <row r="4763" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4763"/>
+    </row>
+    <row r="4764" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4764"/>
+    </row>
+    <row r="4765" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4765"/>
+    </row>
+    <row r="4766" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4766"/>
+    </row>
+    <row r="4767" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4767"/>
+    </row>
+    <row r="4768" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4768"/>
+    </row>
+    <row r="4769" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4769"/>
+    </row>
+    <row r="4770" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4770"/>
+    </row>
+    <row r="4771" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4771"/>
+    </row>
+    <row r="4772" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4772"/>
+    </row>
+    <row r="4773" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4773"/>
+    </row>
+    <row r="4774" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4774"/>
+    </row>
+    <row r="4775" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4775"/>
+    </row>
+    <row r="4776" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4776"/>
+    </row>
+    <row r="4777" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4777"/>
+    </row>
+    <row r="4778" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4778"/>
+    </row>
+    <row r="4779" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4779"/>
+    </row>
+    <row r="4780" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4780"/>
+    </row>
+    <row r="4781" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4781"/>
+    </row>
+    <row r="4782" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4782"/>
+    </row>
+    <row r="4783" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4783"/>
+    </row>
+    <row r="4784" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4784"/>
+    </row>
+    <row r="4785" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4785"/>
+    </row>
+    <row r="4786" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4786"/>
+    </row>
+    <row r="4787" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4787"/>
+    </row>
+    <row r="4788" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4788"/>
+    </row>
+    <row r="4789" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4789"/>
+    </row>
+    <row r="4790" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4790"/>
+    </row>
+    <row r="4791" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4791"/>
+    </row>
+    <row r="4792" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4792"/>
+    </row>
+    <row r="4793" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4793"/>
+    </row>
+    <row r="4794" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4794"/>
+    </row>
+    <row r="4795" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4795"/>
+    </row>
+    <row r="4796" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4796"/>
+    </row>
+    <row r="4797" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4797"/>
+    </row>
+    <row r="4798" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4798"/>
+    </row>
+    <row r="4799" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4799"/>
+    </row>
+    <row r="4800" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4800"/>
+    </row>
+    <row r="4801" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4801"/>
+    </row>
+    <row r="4802" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4802"/>
+    </row>
+    <row r="4803" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4803"/>
+    </row>
+    <row r="4804" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4804"/>
+    </row>
+    <row r="4805" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4805"/>
+    </row>
+    <row r="4806" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4806"/>
+    </row>
+    <row r="4807" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4807"/>
+    </row>
+    <row r="4808" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4808"/>
+    </row>
+    <row r="4809" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4809"/>
+    </row>
+    <row r="4810" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4810"/>
+    </row>
+    <row r="4811" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4811"/>
+    </row>
+    <row r="4812" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4812"/>
+    </row>
+    <row r="4813" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4813"/>
+    </row>
+    <row r="4814" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4814"/>
+    </row>
+    <row r="4815" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4815"/>
+    </row>
+    <row r="4816" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4816"/>
+    </row>
+    <row r="4817" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4817"/>
+    </row>
+    <row r="4818" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4818"/>
+    </row>
+    <row r="4819" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4819"/>
+    </row>
+    <row r="4820" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4820"/>
+    </row>
+    <row r="4821" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4821"/>
+    </row>
+    <row r="4822" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4822"/>
+    </row>
+    <row r="4823" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4823"/>
+    </row>
+    <row r="4824" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4824"/>
+    </row>
+    <row r="4825" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4825"/>
+    </row>
+    <row r="4826" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4826"/>
+    </row>
+    <row r="4827" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4827"/>
+    </row>
+    <row r="4828" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4828"/>
+    </row>
+    <row r="4829" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4829"/>
+    </row>
+    <row r="4830" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4830"/>
+    </row>
+    <row r="4831" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4831"/>
+    </row>
+    <row r="4832" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4832"/>
+    </row>
+    <row r="4833" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4833"/>
+    </row>
+    <row r="4834" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4834"/>
+    </row>
+    <row r="4835" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4835"/>
+    </row>
+    <row r="4836" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4836"/>
+    </row>
+    <row r="4837" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4837"/>
+    </row>
+    <row r="4838" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4838"/>
+    </row>
+    <row r="4839" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4839"/>
+    </row>
+    <row r="4840" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4840"/>
+    </row>
+    <row r="4841" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4841"/>
+    </row>
+    <row r="4842" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4842"/>
+    </row>
+    <row r="4843" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4843"/>
+    </row>
+    <row r="4844" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4844"/>
+    </row>
+    <row r="4845" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4845"/>
+    </row>
+    <row r="4846" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4846"/>
+    </row>
+    <row r="4847" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4847"/>
+    </row>
+    <row r="4848" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4848"/>
+    </row>
+    <row r="4849" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4849"/>
+    </row>
+    <row r="4850" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4850"/>
+    </row>
+    <row r="4851" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4851"/>
+    </row>
+    <row r="4852" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4852"/>
+    </row>
+    <row r="4853" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4853"/>
+    </row>
+    <row r="4854" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4854"/>
+    </row>
+    <row r="4855" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4855"/>
+    </row>
+    <row r="4856" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4856"/>
+    </row>
+    <row r="4857" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4857"/>
+    </row>
+    <row r="4858" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4858"/>
+    </row>
+    <row r="4859" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4859"/>
+    </row>
+    <row r="4860" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4860"/>
+    </row>
+    <row r="4861" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4861"/>
+    </row>
+    <row r="4862" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4862"/>
+    </row>
+    <row r="4863" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4863"/>
+    </row>
+    <row r="4864" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4864"/>
+    </row>
+    <row r="4865" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4865"/>
+    </row>
+    <row r="4866" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4866"/>
+    </row>
+    <row r="4867" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4867"/>
+    </row>
+    <row r="4868" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4868"/>
+    </row>
+    <row r="4869" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4869"/>
+    </row>
+    <row r="4870" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4870"/>
+    </row>
+    <row r="4871" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4871"/>
+    </row>
+    <row r="4872" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4872"/>
+    </row>
+    <row r="4873" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4873"/>
+    </row>
+    <row r="4874" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4874"/>
+    </row>
+    <row r="4875" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4875"/>
+    </row>
+    <row r="4876" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4876"/>
+    </row>
+    <row r="4877" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4877"/>
+    </row>
+    <row r="4878" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4878"/>
+    </row>
+    <row r="4879" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4879"/>
+    </row>
+    <row r="4880" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4880"/>
+    </row>
+    <row r="4881" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4881"/>
+    </row>
+    <row r="4882" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4882"/>
+    </row>
+    <row r="4883" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4883"/>
+    </row>
+    <row r="4884" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4884"/>
+    </row>
+    <row r="4885" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4885"/>
+    </row>
+    <row r="4886" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4886"/>
+    </row>
+    <row r="4887" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4887"/>
+    </row>
+    <row r="4888" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4888"/>
+    </row>
+    <row r="4889" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4889"/>
+    </row>
+    <row r="4890" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4890"/>
+    </row>
+    <row r="4891" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4891"/>
+    </row>
+    <row r="4892" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4892"/>
+    </row>
+    <row r="4893" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4893"/>
+    </row>
+    <row r="4894" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4894"/>
+    </row>
+    <row r="4895" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4895"/>
+    </row>
+    <row r="4896" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4896"/>
+    </row>
+    <row r="4897" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4897"/>
+    </row>
+    <row r="4898" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4898"/>
+    </row>
+    <row r="4899" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4899"/>
+    </row>
+    <row r="4900" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4900"/>
+    </row>
+    <row r="4901" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4901"/>
+    </row>
+    <row r="4902" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4902"/>
+    </row>
+    <row r="4903" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4903"/>
+    </row>
+    <row r="4904" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4904"/>
+    </row>
+    <row r="4905" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4905"/>
+    </row>
+    <row r="4906" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4906"/>
+    </row>
+    <row r="4907" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4907"/>
+    </row>
+    <row r="4908" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4908"/>
+    </row>
+    <row r="4909" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4909"/>
+    </row>
+    <row r="4910" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4910"/>
+    </row>
+    <row r="4911" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4911"/>
+    </row>
+    <row r="4912" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4912"/>
+    </row>
+    <row r="4913" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4913"/>
+    </row>
+    <row r="4914" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4914"/>
+    </row>
+    <row r="4915" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4915"/>
+    </row>
+    <row r="4916" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4916"/>
+    </row>
+    <row r="4917" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4917"/>
+    </row>
+    <row r="4918" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4918"/>
+    </row>
+    <row r="4919" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4919"/>
+    </row>
+    <row r="4920" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4920"/>
+    </row>
+    <row r="4921" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4921"/>
+    </row>
+    <row r="4922" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4922"/>
+    </row>
+    <row r="4923" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4923"/>
+    </row>
+    <row r="4924" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4924"/>
+    </row>
+    <row r="4925" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4925"/>
+    </row>
+    <row r="4926" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4926"/>
+    </row>
+    <row r="4927" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4927"/>
+    </row>
+    <row r="4928" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4928"/>
+    </row>
+    <row r="4929" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4929"/>
+    </row>
+    <row r="4930" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4930"/>
+    </row>
+    <row r="4931" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4931"/>
+    </row>
+    <row r="4932" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4932"/>
+    </row>
+    <row r="4933" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4933"/>
+    </row>
+    <row r="4934" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4934"/>
+    </row>
+    <row r="4935" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4935"/>
+    </row>
+    <row r="4936" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4936"/>
+    </row>
+    <row r="4937" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4937"/>
+    </row>
+    <row r="4938" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4938"/>
+    </row>
+    <row r="4939" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4939"/>
+    </row>
+    <row r="4940" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4940"/>
+    </row>
+    <row r="4941" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4941"/>
+    </row>
+    <row r="4942" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4942"/>
+    </row>
+    <row r="4943" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4943"/>
+    </row>
+    <row r="4944" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4944"/>
+    </row>
+    <row r="4945" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4945"/>
+    </row>
+    <row r="4946" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4946"/>
+    </row>
+    <row r="4947" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4947"/>
+    </row>
+    <row r="4948" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4948"/>
+    </row>
+    <row r="4949" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4949"/>
+    </row>
+    <row r="4950" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4950"/>
+    </row>
+    <row r="4951" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4951"/>
+    </row>
+    <row r="4952" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4952"/>
+    </row>
+    <row r="4953" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4953"/>
+    </row>
+    <row r="4954" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4954"/>
+    </row>
+    <row r="4955" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4955"/>
+    </row>
+    <row r="4956" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4956"/>
+    </row>
+    <row r="4957" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4957"/>
+    </row>
+    <row r="4958" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4958"/>
+    </row>
+    <row r="4959" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4959"/>
+    </row>
+    <row r="4960" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4960"/>
+    </row>
+    <row r="4961" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4961"/>
+    </row>
+    <row r="4962" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4962"/>
+    </row>
+    <row r="4963" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4963"/>
+    </row>
+    <row r="4964" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4964"/>
+    </row>
+    <row r="4965" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4965"/>
+    </row>
+    <row r="4966" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4966"/>
+    </row>
+    <row r="4967" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4967"/>
+    </row>
+    <row r="4968" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4968"/>
+    </row>
+    <row r="4969" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4969"/>
+    </row>
+    <row r="4970" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4970"/>
+    </row>
+    <row r="4971" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4971"/>
+    </row>
+    <row r="4972" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4972"/>
+    </row>
+    <row r="4973" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4973"/>
+    </row>
+    <row r="4974" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4974"/>
+    </row>
+    <row r="4975" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4975"/>
+    </row>
+    <row r="4976" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4976"/>
+    </row>
+    <row r="4977" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4977"/>
+    </row>
+    <row r="4978" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4978"/>
+    </row>
+    <row r="4979" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4979"/>
+    </row>
+    <row r="4980" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4980"/>
+    </row>
+    <row r="4981" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4981"/>
+    </row>
+    <row r="4982" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4982"/>
+    </row>
+    <row r="4983" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4983"/>
+    </row>
+    <row r="4984" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4984"/>
+    </row>
+    <row r="4985" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4985"/>
+    </row>
+    <row r="4986" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4986"/>
+    </row>
+    <row r="4987" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4987"/>
+    </row>
+    <row r="4988" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4988"/>
+    </row>
+    <row r="4989" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4989"/>
+    </row>
+    <row r="4990" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4990"/>
+    </row>
+    <row r="4991" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4991"/>
+    </row>
+    <row r="4992" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4992"/>
+    </row>
+    <row r="4993" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4993"/>
+    </row>
+    <row r="4994" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4994"/>
+    </row>
+    <row r="4995" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4995"/>
+    </row>
+    <row r="4996" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4996"/>
+    </row>
+    <row r="4997" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4997"/>
+    </row>
+    <row r="4998" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4998"/>
+    </row>
+    <row r="4999" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D4999"/>
+    </row>
+    <row r="5000" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5000"/>
+    </row>
+    <row r="5001" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5001"/>
+    </row>
+    <row r="5002" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5002"/>
+    </row>
+    <row r="5003" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5003"/>
+    </row>
+    <row r="5004" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5004"/>
+    </row>
+    <row r="5005" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5005"/>
+    </row>
+    <row r="5006" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5006"/>
+    </row>
+    <row r="5007" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5007"/>
+    </row>
+    <row r="5008" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5008"/>
+    </row>
+    <row r="5009" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5009"/>
+    </row>
+    <row r="5010" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5010"/>
+    </row>
+    <row r="5011" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5011"/>
+    </row>
+    <row r="5012" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5012"/>
+    </row>
+    <row r="5013" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5013"/>
+    </row>
+    <row r="5014" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5014"/>
+    </row>
+    <row r="5015" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5015"/>
+    </row>
+    <row r="5016" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5016"/>
+    </row>
+    <row r="5017" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5017"/>
+    </row>
+    <row r="5018" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5018"/>
+    </row>
+    <row r="5019" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5019"/>
+    </row>
+    <row r="5020" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5020"/>
+    </row>
+    <row r="5021" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5021"/>
+    </row>
+    <row r="5022" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5022"/>
+    </row>
+    <row r="5023" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5023"/>
+    </row>
+    <row r="5024" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5024"/>
+    </row>
+    <row r="5025" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5025"/>
+    </row>
+    <row r="5026" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5026"/>
+    </row>
+    <row r="5027" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5027"/>
+    </row>
+    <row r="5028" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5028"/>
+    </row>
+    <row r="5029" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5029"/>
+    </row>
+    <row r="5030" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5030"/>
+    </row>
+    <row r="5031" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5031"/>
+    </row>
+    <row r="5032" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5032"/>
+    </row>
+    <row r="5033" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5033"/>
+    </row>
+    <row r="5034" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5034"/>
+    </row>
+    <row r="5035" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5035"/>
+    </row>
+    <row r="5036" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5036"/>
+    </row>
+    <row r="5037" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5037"/>
+    </row>
+    <row r="5038" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5038"/>
+    </row>
+    <row r="5039" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5039"/>
+    </row>
+    <row r="5040" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5040"/>
+    </row>
+    <row r="5041" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5041"/>
+    </row>
+    <row r="5042" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5042"/>
+    </row>
+    <row r="5043" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5043"/>
+    </row>
+    <row r="5044" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5044"/>
+    </row>
+    <row r="5045" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5045"/>
+    </row>
+    <row r="5046" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5046"/>
+    </row>
+    <row r="5047" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5047"/>
+    </row>
+    <row r="5048" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5048"/>
+    </row>
+    <row r="5049" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5049"/>
+    </row>
+    <row r="5050" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5050"/>
+    </row>
+    <row r="5051" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5051"/>
+    </row>
+    <row r="5052" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5052"/>
+    </row>
+    <row r="5053" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5053"/>
+    </row>
+    <row r="5054" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5054"/>
+    </row>
+    <row r="5055" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5055"/>
+    </row>
+    <row r="5056" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5056"/>
+    </row>
+    <row r="5057" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5057"/>
+    </row>
+    <row r="5058" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5058"/>
+    </row>
+    <row r="5059" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5059"/>
+    </row>
+    <row r="5060" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5060"/>
+    </row>
+    <row r="5061" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5061"/>
+    </row>
+    <row r="5062" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5062"/>
+    </row>
+    <row r="5063" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5063"/>
+    </row>
+    <row r="5064" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5064"/>
+    </row>
+    <row r="5065" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5065"/>
+    </row>
+    <row r="5066" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5066"/>
+    </row>
+    <row r="5067" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5067"/>
+    </row>
+    <row r="5068" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5068"/>
+    </row>
+    <row r="5069" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5069"/>
+    </row>
+    <row r="5070" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5070"/>
+    </row>
+    <row r="5071" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5071"/>
+    </row>
+    <row r="5072" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5072"/>
+    </row>
+    <row r="5073" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5073"/>
+    </row>
+    <row r="5074" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5074"/>
+    </row>
+    <row r="5075" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5075"/>
+    </row>
+    <row r="5076" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5076"/>
+    </row>
+    <row r="5077" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5077"/>
+    </row>
+    <row r="5078" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5078"/>
+    </row>
+    <row r="5079" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5079"/>
+    </row>
+    <row r="5080" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5080"/>
+    </row>
+    <row r="5081" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5081"/>
+    </row>
+    <row r="5082" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5082"/>
+    </row>
+    <row r="5083" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5083"/>
+    </row>
+    <row r="5084" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5084"/>
+    </row>
+    <row r="5085" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5085"/>
+    </row>
+    <row r="5086" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5086"/>
+    </row>
+    <row r="5087" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5087"/>
+    </row>
+    <row r="5088" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5088"/>
+    </row>
+    <row r="5089" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5089"/>
+    </row>
+    <row r="5090" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5090"/>
+    </row>
+    <row r="5091" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5091"/>
+    </row>
+    <row r="5092" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5092"/>
+    </row>
+    <row r="5093" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5093"/>
+    </row>
+    <row r="5094" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5094"/>
+    </row>
+    <row r="5095" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5095"/>
+    </row>
+    <row r="5096" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5096"/>
+    </row>
+    <row r="5097" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5097"/>
+    </row>
+    <row r="5098" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5098"/>
+    </row>
+    <row r="5099" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5099"/>
+    </row>
+    <row r="5100" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5100"/>
+    </row>
+    <row r="5101" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5101"/>
+    </row>
+    <row r="5102" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5102"/>
+    </row>
+    <row r="5103" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5103"/>
+    </row>
+    <row r="5104" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5104"/>
+    </row>
+    <row r="5105" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5105"/>
+    </row>
+    <row r="5106" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5106"/>
+    </row>
+    <row r="5107" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5107"/>
+    </row>
+    <row r="5108" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5108"/>
+    </row>
+    <row r="5109" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5109"/>
+    </row>
+    <row r="5110" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5110"/>
+    </row>
+    <row r="5111" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5111"/>
+    </row>
+    <row r="5112" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5112"/>
+    </row>
+    <row r="5113" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5113"/>
+    </row>
+    <row r="5114" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5114"/>
+    </row>
+    <row r="5115" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5115"/>
+    </row>
+    <row r="5116" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5116"/>
+    </row>
+    <row r="5117" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5117"/>
+    </row>
+    <row r="5118" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5118"/>
+    </row>
+    <row r="5119" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5119"/>
+    </row>
+    <row r="5120" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5120"/>
+    </row>
+    <row r="5121" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5121"/>
+    </row>
+    <row r="5122" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5122"/>
+    </row>
+    <row r="5123" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5123"/>
+    </row>
+    <row r="5124" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5124"/>
+    </row>
+    <row r="5125" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5125"/>
+    </row>
+    <row r="5126" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5126"/>
+    </row>
+    <row r="5127" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5127"/>
+    </row>
+    <row r="5128" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5128"/>
+    </row>
+    <row r="5129" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5129"/>
+    </row>
+    <row r="5130" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5130"/>
+    </row>
+    <row r="5131" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5131"/>
+    </row>
+    <row r="5132" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5132"/>
+    </row>
+    <row r="5133" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5133"/>
+    </row>
+    <row r="5134" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5134"/>
+    </row>
+    <row r="5135" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5135"/>
+    </row>
+    <row r="5136" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5136"/>
+    </row>
+    <row r="5137" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5137"/>
+    </row>
+    <row r="5138" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5138"/>
+    </row>
+    <row r="5139" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5139"/>
+    </row>
+    <row r="5140" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5140"/>
+    </row>
+    <row r="5141" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5141"/>
+    </row>
+    <row r="5142" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5142"/>
+    </row>
+    <row r="5143" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5143"/>
+    </row>
+    <row r="5144" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5144"/>
+    </row>
+    <row r="5145" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5145"/>
+    </row>
+    <row r="5146" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5146"/>
+    </row>
+    <row r="5147" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5147"/>
+    </row>
+    <row r="5148" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5148"/>
+    </row>
+    <row r="5149" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5149"/>
+    </row>
+    <row r="5150" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5150"/>
+    </row>
+    <row r="5151" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5151"/>
+    </row>
+    <row r="5152" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5152"/>
+    </row>
+    <row r="5153" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5153"/>
+    </row>
+    <row r="5154" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5154"/>
+    </row>
+    <row r="5155" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5155"/>
+    </row>
+    <row r="5156" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5156"/>
+    </row>
+    <row r="5157" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5157"/>
+    </row>
+    <row r="5158" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5158"/>
+    </row>
+    <row r="5159" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5159"/>
+    </row>
+    <row r="5160" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5160"/>
+    </row>
+    <row r="5161" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5161"/>
+    </row>
+    <row r="5162" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5162"/>
+    </row>
+    <row r="5163" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5163"/>
+    </row>
+    <row r="5164" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5164"/>
+    </row>
+    <row r="5165" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5165"/>
+    </row>
+    <row r="5166" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5166"/>
+    </row>
+    <row r="5167" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5167"/>
+    </row>
+    <row r="5168" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5168"/>
+    </row>
+    <row r="5169" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5169"/>
+    </row>
+    <row r="5170" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5170"/>
+    </row>
+    <row r="5171" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5171"/>
+    </row>
+    <row r="5172" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5172"/>
+    </row>
+    <row r="5173" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5173"/>
+    </row>
+    <row r="5174" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5174"/>
+    </row>
+    <row r="5175" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5175"/>
+    </row>
+    <row r="5176" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5176"/>
+    </row>
+    <row r="5177" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5177"/>
+    </row>
+    <row r="5178" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5178"/>
+    </row>
+    <row r="5179" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5179"/>
+    </row>
+    <row r="5180" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5180"/>
+    </row>
+    <row r="5181" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5181"/>
+    </row>
+    <row r="5182" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5182"/>
+    </row>
+    <row r="5183" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5183"/>
+    </row>
+    <row r="5184" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5184"/>
+    </row>
+    <row r="5185" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5185"/>
+    </row>
+    <row r="5186" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5186"/>
+    </row>
+    <row r="5187" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5187"/>
+    </row>
+    <row r="5188" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5188"/>
+    </row>
+    <row r="5189" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5189"/>
+    </row>
+    <row r="5190" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5190"/>
+    </row>
+    <row r="5191" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5191"/>
+    </row>
+    <row r="5192" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5192"/>
+    </row>
+    <row r="5193" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5193"/>
+    </row>
+    <row r="5194" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5194"/>
+    </row>
+    <row r="5195" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5195"/>
+    </row>
+    <row r="5196" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5196"/>
+    </row>
+    <row r="5197" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5197"/>
+    </row>
+    <row r="5198" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5198"/>
+    </row>
+    <row r="5199" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5199"/>
+    </row>
+    <row r="5200" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5200"/>
+    </row>
+    <row r="5201" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5201"/>
+    </row>
+    <row r="5202" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5202"/>
+    </row>
+    <row r="5203" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5203"/>
+    </row>
+    <row r="5204" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5204"/>
+    </row>
+    <row r="5205" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5205"/>
+    </row>
+    <row r="5206" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5206"/>
+    </row>
+    <row r="5207" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5207"/>
+    </row>
+    <row r="5208" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5208"/>
+    </row>
+    <row r="5209" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5209"/>
+    </row>
+    <row r="5210" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5210"/>
+    </row>
+    <row r="5211" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5211"/>
+    </row>
+    <row r="5212" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5212"/>
+    </row>
+    <row r="5213" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5213"/>
+    </row>
+    <row r="5214" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5214"/>
+    </row>
+    <row r="5215" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5215"/>
+    </row>
+    <row r="5216" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5216"/>
+    </row>
+    <row r="5217" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5217"/>
+    </row>
+    <row r="5218" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5218"/>
+    </row>
+    <row r="5219" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5219"/>
+    </row>
+    <row r="5220" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5220"/>
+    </row>
+    <row r="5221" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5221"/>
+    </row>
+    <row r="5222" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5222"/>
+    </row>
+    <row r="5223" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5223"/>
+    </row>
+    <row r="5224" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5224"/>
+    </row>
+    <row r="5225" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5225"/>
+    </row>
+    <row r="5226" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5226"/>
+    </row>
+    <row r="5227" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5227"/>
+    </row>
+    <row r="5228" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5228"/>
+    </row>
+    <row r="5229" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5229"/>
+    </row>
+    <row r="5230" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5230"/>
+    </row>
+    <row r="5231" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5231"/>
+    </row>
+    <row r="5232" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5232"/>
+    </row>
+    <row r="5233" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5233"/>
+    </row>
+    <row r="5234" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5234"/>
+    </row>
+    <row r="5235" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5235"/>
+    </row>
+    <row r="5236" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5236"/>
+    </row>
+    <row r="5237" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5237"/>
+    </row>
+    <row r="5238" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5238"/>
+    </row>
+    <row r="5239" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5239"/>
+    </row>
+    <row r="5240" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5240"/>
+    </row>
+    <row r="5241" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5241"/>
+    </row>
+    <row r="5242" spans="4:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="D5242"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
